--- a/RR/Esterni/Piano di Progetto/RISORSE_4_VV.xlsx
+++ b/RR/Esterni/Piano di Progetto/RISORSE_4_VV.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
   <si>
     <t>Task Code</t>
   </si>
@@ -28,13 +28,142 @@
   </si>
   <si>
     <t>Ore di lavoro</t>
+  </si>
+  <si>
+    <t>Verificatore</t>
+  </si>
+  <si>
+    <t>Amministratore</t>
+  </si>
+  <si>
+    <t>Responsabile</t>
+  </si>
+  <si>
+    <t>Ruolo</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>Ore totali di lavoro</t>
+  </si>
+  <si>
+    <t>I Periodo</t>
+  </si>
+  <si>
+    <t>II Periodo</t>
+  </si>
+  <si>
+    <t>Progettista</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>PROG</t>
+  </si>
+  <si>
+    <t>Programmatore</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>costo orario</t>
+  </si>
+  <si>
+    <t>Totale</t>
+  </si>
+  <si>
+    <t>Membro</t>
+  </si>
+  <si>
+    <t>Begolo Marco</t>
+  </si>
+  <si>
+    <t>Facchin Gabriele</t>
+  </si>
+  <si>
+    <t>Maggiolo Giorgio</t>
+  </si>
+  <si>
+    <t>Dalla Pietà Massimo</t>
+  </si>
+  <si>
+    <t>Braghetto Lorenzo</t>
+  </si>
+  <si>
+    <t>Quadrio Giacomo</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Fase</t>
+  </si>
+  <si>
+    <t>Cornaglia Alessando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE </t>
+  </si>
+  <si>
+    <t>VV 1.1</t>
+  </si>
+  <si>
+    <t>Aggiornamento manuale utente</t>
+  </si>
+  <si>
+    <t>Verifica manuale utente</t>
+  </si>
+  <si>
+    <t>VV 1.2</t>
+  </si>
+  <si>
+    <t>VV 2.1</t>
+  </si>
+  <si>
+    <t>VV 2.2</t>
+  </si>
+  <si>
+    <t>Modifiche Software - Verifica</t>
+  </si>
+  <si>
+    <t>Modifiche Software - Codifica</t>
+  </si>
+  <si>
+    <t>Aggiornamento Piano di Qualifica</t>
+  </si>
+  <si>
+    <t>Verifica Piano di Qualifica</t>
+  </si>
+  <si>
+    <t>VV 3.1</t>
+  </si>
+  <si>
+    <t>VV 3.2</t>
+  </si>
+  <si>
+    <t>Tutte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROG </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +179,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -59,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -67,18 +204,704 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -368,38 +1191,1060 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:AI44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" customWidth="1"/>
+    <col min="12" max="12" width="4" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" customWidth="1"/>
+    <col min="16" max="16" width="34.42578125" customWidth="1"/>
+    <col min="17" max="17" width="26.7109375" customWidth="1"/>
+    <col min="20" max="20" width="21.28515625" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" customWidth="1"/>
+    <col min="29" max="29" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="54" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="D2" s="1"/>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="35">
+        <v>16</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="48">
+        <f>SUM(D2:E2)</f>
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <f>IF($C2="Responsabile",$F2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>IF($C2="Amministratore",$F2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>IF($C2="Verificatore",$F2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>IF($C2="Progettista",$F2,0)</f>
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <f>IF($C2="Programmatore",$F2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5">
+        <f>SUM(H2:H109)</f>
+        <v>16</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>P2*R2</f>
+        <v>480</v>
+      </c>
+      <c r="R2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="34">
+        <v>8</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="47">
+        <f t="shared" ref="F3:F10" si="0">SUM(D3:E3)</f>
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H26" si="1">IF($C3="Responsabile",$F3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I26" si="2">IF($C3="Amministratore",$F3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J26" si="3">IF($C3="Verificatore",$F3,0)</f>
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K26" si="4">IF($C3="Progettista",$F3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L26" si="5">IF($C3="Programmatore",$F3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1">
+        <f>SUM(I2:I110)</f>
+        <v>24</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3:Q6" si="6">P3*R3</f>
+        <v>480</v>
+      </c>
+      <c r="R3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="35">
+        <v>2</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="1">
+        <f>SUM(J2:J112)</f>
+        <v>128</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="6"/>
+        <v>1920</v>
+      </c>
+      <c r="R4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="33">
+        <v>20</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="46">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="1">
+        <f>SUM(K2:K113)</f>
+        <v>32</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="6"/>
+        <v>704</v>
+      </c>
+      <c r="R5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A6" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="34">
+        <v>6</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="47">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <f>IF($C6="Responsabile",$F6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>IF($C6="Amministratore",$F6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>IF($C6="Verificatore",$F6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="11">
+        <f>SUM(L2:L114)</f>
+        <v>40</v>
+      </c>
+      <c r="Q6" s="12">
+        <f t="shared" si="6"/>
+        <v>600</v>
+      </c>
+      <c r="R6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="35">
+        <v>2</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f>IF($C7="Responsabile",$F7,0)</f>
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f>IF($C7="Amministratore",$F7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>IF($C7="Verificatore",$F7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="14">
+        <f>SUM(P2:P6)</f>
+        <v>240</v>
+      </c>
+      <c r="Q7" s="15">
+        <f>SUM(Q2:Q6)</f>
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="33">
+        <v>50</v>
+      </c>
+      <c r="F8" s="46">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <f>IF($C8="Responsabile",$F8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>IF($C8="Amministratore",$F8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>IF($C8="Verificatore",$F8,0)</f>
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="34">
+        <v>12</v>
+      </c>
+      <c r="F9" s="47">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A10" s="51"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="22">
+        <v>4</v>
+      </c>
+      <c r="F10" s="52">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A12" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="53">
+        <f>SUM(D2:D10)</f>
+        <v>54</v>
+      </c>
+      <c r="E12" s="53">
+        <f t="shared" ref="E12:F12" si="7">SUM(E2:E10)</f>
+        <v>66</v>
+      </c>
+      <c r="F12" s="53">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H10)</f>
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:L12" si="8">SUM(I2:I10)</f>
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="O12" s="55"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="57"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="36"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="60"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="36"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="19"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="37"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="36"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="17"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="36"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="17"/>
+    </row>
+    <row r="17" spans="1:35">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="36"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="17"/>
+    </row>
+    <row r="18" spans="1:35">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="36"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="17"/>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="36"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="17"/>
+    </row>
+    <row r="20" spans="1:35" ht="15.75" thickBot="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="36"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="18"/>
+    </row>
+    <row r="21" spans="1:35" ht="15.75" thickBot="1">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="36"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="1:35">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="36"/>
+    </row>
+    <row r="23" spans="1:35">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:35">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+    </row>
+    <row r="25" spans="1:35">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="1:35" ht="15.75" thickBot="1">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" spans="1:35">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="T27" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="U27" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="V27" s="56"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="57"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="16"/>
+    </row>
+    <row r="28" spans="1:35" ht="15.75" thickBot="1">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="V28" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="W28" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="X28" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y28" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z28" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="16"/>
+      <c r="AI28" s="16"/>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="T29" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="U29" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="28">
+        <v>4</v>
+      </c>
+      <c r="W29" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="X29" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="28">
+        <v>10</v>
+      </c>
+      <c r="Z29" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="16"/>
+    </row>
+    <row r="30" spans="1:35">
+      <c r="T30" s="25"/>
+      <c r="U30" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="V30" s="29">
+        <v>4</v>
+      </c>
+      <c r="W30" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="41"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="23"/>
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="16"/>
+      <c r="AI30" s="16"/>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="T31" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="U31" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="V31" s="28">
+        <v>8</v>
+      </c>
+      <c r="W31" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="X31" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y31" s="28">
+        <v>4</v>
+      </c>
+      <c r="Z31" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="16"/>
+      <c r="AI31" s="16"/>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="Q32" s="66"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y32" s="28">
+        <v>2</v>
+      </c>
+      <c r="Z32" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="16"/>
+      <c r="AI32" s="16"/>
+    </row>
+    <row r="33" spans="20:26">
+      <c r="T33" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="U33" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="V33" s="30">
+        <v>8</v>
+      </c>
+      <c r="W33" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="X33" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y33" s="30">
+        <v>10</v>
+      </c>
+      <c r="Z33" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="20:26">
+      <c r="T34" s="25"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="41"/>
+    </row>
+    <row r="35" spans="20:26">
+      <c r="T35" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="U35" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="V35" s="28">
+        <v>8</v>
+      </c>
+      <c r="W35" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="X35" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y35" s="28">
+        <v>10</v>
+      </c>
+      <c r="Z35" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="20:26">
+      <c r="T36" s="24"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="39"/>
+    </row>
+    <row r="37" spans="20:26">
+      <c r="T37" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="U37" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="V37" s="30">
+        <v>8</v>
+      </c>
+      <c r="W37" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="X37" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y37" s="30">
+        <v>10</v>
+      </c>
+      <c r="Z37" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="20:26">
+      <c r="T38" s="25"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="41"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="41"/>
+    </row>
+    <row r="39" spans="20:26">
+      <c r="T39" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="U39" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="V39" s="28">
+        <v>8</v>
+      </c>
+      <c r="W39" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="X39" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y39" s="28">
+        <v>10</v>
+      </c>
+      <c r="Z39" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="20:26">
+      <c r="T40" s="24"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="39"/>
+    </row>
+    <row r="41" spans="20:26">
+      <c r="T41" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U41" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="V41" s="30">
+        <v>6</v>
+      </c>
+      <c r="W41" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="X41" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y41" s="30">
+        <v>10</v>
+      </c>
+      <c r="Z41" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="20:26" ht="15.75" thickBot="1">
+      <c r="T42" s="27"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="31"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="44"/>
+      <c r="Y42" s="31"/>
+      <c r="Z42" s="45"/>
+    </row>
+    <row r="44" spans="20:26">
+      <c r="V44">
+        <f>SUM(V29:V41)</f>
+        <v>54</v>
+      </c>
+      <c r="Y44">
+        <f>SUM(Y29:Y42)</f>
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="T27:T28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="Y44">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
+      <formula>$E$12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>$E$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V44">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
+      <formula>$D$12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>$D$12</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/RR/Esterni/Piano di Progetto/RISORSE_4_VV.xlsx
+++ b/RR/Esterni/Piano di Progetto/RISORSE_4_VV.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>Task Code</t>
   </si>
@@ -196,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -741,11 +741,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -827,37 +893,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1191,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI44"/>
+  <dimension ref="A1:AI32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1222,7 +1315,7 @@
     <col min="29" max="29" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:27" ht="15.75" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1311,18 +1404,18 @@
         <v>6</v>
       </c>
       <c r="P2" s="5">
-        <f>SUM(H2:H109)</f>
-        <v>16</v>
+        <f>SUM(H2:H10)</f>
+        <v>8</v>
       </c>
       <c r="Q2" s="6">
         <f>P2*R2</f>
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="R2">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:27">
       <c r="A3" s="10" t="s">
         <v>35</v>
       </c>
@@ -1341,41 +1434,57 @@
         <v>8</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H26" si="1">IF($C3="Responsabile",$F3,0)</f>
+        <f t="shared" ref="H3:H10" si="1">IF($C3="Responsabile",$F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I26" si="2">IF($C3="Amministratore",$F3,0)</f>
+        <f t="shared" ref="I3:I10" si="2">IF($C3="Amministratore",$F3,0)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J26" si="3">IF($C3="Verificatore",$F3,0)</f>
+        <f t="shared" ref="J3:J10" si="3">IF($C3="Verificatore",$F3,0)</f>
         <v>8</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K26" si="4">IF($C3="Progettista",$F3,0)</f>
+        <f t="shared" ref="K3:K10" si="4">IF($C3="Progettista",$F3,0)</f>
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L26" si="5">IF($C3="Programmatore",$F3,0)</f>
+        <f t="shared" ref="L3:L10" si="5">IF($C3="Programmatore",$F3,0)</f>
         <v>0</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="P3" s="1">
-        <f>SUM(I2:I110)</f>
-        <v>24</v>
+        <f>SUM(I2:I10)</f>
+        <v>12</v>
       </c>
       <c r="Q3" s="3">
         <f t="shared" ref="Q3:Q6" si="6">P3*R3</f>
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="R3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="T3" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="72"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="35" t="s">
@@ -1413,18 +1522,38 @@
         <v>4</v>
       </c>
       <c r="P4" s="1">
-        <f>SUM(J2:J112)</f>
-        <v>128</v>
+        <f>SUM(J2:J10)</f>
+        <v>64</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" si="6"/>
-        <v>1920</v>
+        <v>960</v>
       </c>
       <c r="R4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="T4" s="70"/>
+      <c r="U4" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="70"/>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="49" t="s">
         <v>36</v>
       </c>
@@ -1466,18 +1595,43 @@
         <v>14</v>
       </c>
       <c r="P5" s="1">
-        <f>SUM(K2:K113)</f>
-        <v>32</v>
+        <f>SUM(K2:K10)</f>
+        <v>16</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="6"/>
-        <v>704</v>
+        <v>352</v>
       </c>
       <c r="R5">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1">
+      <c r="T5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="28">
+        <v>4</v>
+      </c>
+      <c r="W5" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="X5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="28">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="67">
+        <f>SUM(V5:V6,Y5:Y6)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1">
       <c r="A6" s="50" t="s">
         <v>37</v>
       </c>
@@ -1519,18 +1673,32 @@
         <v>17</v>
       </c>
       <c r="P6" s="11">
-        <f>SUM(L2:L114)</f>
-        <v>40</v>
+        <f>SUM(L2:L10)</f>
+        <v>20</v>
       </c>
       <c r="Q6" s="12">
         <f t="shared" si="6"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="R6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1">
+      <c r="T6" s="25"/>
+      <c r="U6" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="V6" s="29">
+        <v>4</v>
+      </c>
+      <c r="W6" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="68"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="35" t="s">
@@ -1569,14 +1737,39 @@
       </c>
       <c r="P7" s="14">
         <f>SUM(P2:P6)</f>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="15">
         <f>SUM(Q2:Q6)</f>
-        <v>4184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>2092</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="V7" s="28">
+        <v>8</v>
+      </c>
+      <c r="W7" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y7" s="28">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA7" s="68">
+        <f t="shared" ref="AA7" si="7">SUM(V7:V8,Y7:Y8)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="49" t="s">
         <v>42</v>
       </c>
@@ -1614,8 +1807,22 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="T8" s="24"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="28">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA8" s="68"/>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="50" t="s">
         <v>43</v>
       </c>
@@ -1653,8 +1860,33 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1">
+      <c r="T9" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="30">
+        <v>8</v>
+      </c>
+      <c r="W9" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="30">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA9" s="68">
+        <f t="shared" ref="AA9" si="8">SUM(V9:V10,Y9:Y10)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1">
       <c r="A10" s="51"/>
       <c r="B10" s="20"/>
       <c r="C10" s="22" t="s">
@@ -1688,17 +1920,50 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1">
+      <c r="T10" s="25"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="68"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
       <c r="F11" s="36"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="67" t="s">
+      <c r="T11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="V11" s="28">
+        <v>8</v>
+      </c>
+      <c r="W11" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="X11" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="28">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA11" s="68">
+        <f t="shared" ref="AA11" si="9">SUM(V11:V12,Y11:Y12)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1">
+      <c r="A12" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="21"/>
@@ -1708,11 +1973,11 @@
         <v>54</v>
       </c>
       <c r="E12" s="53">
-        <f t="shared" ref="E12:F12" si="7">SUM(E2:E10)</f>
+        <f t="shared" ref="E12:F12" si="10">SUM(E2:E10)</f>
         <v>66</v>
       </c>
       <c r="F12" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="H12">
@@ -1720,37 +1985,70 @@
         <v>8</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:L12" si="8">SUM(I2:I10)</f>
+        <f t="shared" ref="I12:L12" si="11">SUM(I2:I10)</f>
         <v>12</v>
       </c>
       <c r="J12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>64</v>
       </c>
       <c r="K12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="L12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="O12" s="55"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="57"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1">
+      <c r="O12" s="74"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="73"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="68"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
       <c r="F13" s="36"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="60"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="O13" s="75"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="56"/>
+      <c r="T13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="V13" s="30">
+        <v>8</v>
+      </c>
+      <c r="W13" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="X13" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y13" s="30">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA13" s="68">
+        <f t="shared" ref="AA13" si="12">SUM(V13:V14,Y13:Y14)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1760,8 +2058,16 @@
       <c r="O14" s="4"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="19"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="T14" s="25"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="68"/>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="37"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1771,8 +2077,33 @@
       <c r="O15" s="2"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="17"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="T15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="V15" s="28">
+        <v>8</v>
+      </c>
+      <c r="W15" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y15" s="28">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA15" s="68">
+        <f t="shared" ref="AA15" si="13">SUM(V15:V16,Y15:Y16)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -1782,6 +2113,14 @@
       <c r="O16" s="2"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="17"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="68"/>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="16"/>
@@ -1793,8 +2132,33 @@
       <c r="O17" s="2"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="17"/>
-    </row>
-    <row r="18" spans="1:35">
+      <c r="T17" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="V17" s="30">
+        <v>6</v>
+      </c>
+      <c r="W17" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="X17" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y17" s="30">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA17" s="68">
+        <f t="shared" ref="AA17" si="14">SUM(V17:V18,Y17:Y18)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="15.75" thickBot="1">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -1804,6 +2168,14 @@
       <c r="O18" s="2"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="17"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="71"/>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="16"/>
@@ -1826,6 +2198,14 @@
       <c r="O20" s="10"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="18"/>
+      <c r="V20">
+        <f>SUM(V5:V17)</f>
+        <v>54</v>
+      </c>
+      <c r="Y20">
+        <f>SUM(Y5:Y18)</f>
+        <v>66</v>
+      </c>
     </row>
     <row r="21" spans="1:35" ht="15.75" thickBot="1">
       <c r="A21" s="16"/>
@@ -1870,7 +2250,7 @@
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
     </row>
-    <row r="26" spans="1:35" ht="15.75" thickBot="1">
+    <row r="26" spans="1:35">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="23"/>
@@ -1885,19 +2265,6 @@
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
-      <c r="T27" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="U27" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="V27" s="56"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="57"/>
       <c r="AB27" s="16"/>
       <c r="AC27" s="16"/>
       <c r="AD27" s="16"/>
@@ -1907,32 +2274,13 @@
       <c r="AH27" s="16"/>
       <c r="AI27" s="16"/>
     </row>
-    <row r="28" spans="1:35" ht="15.75" thickBot="1">
+    <row r="28" spans="1:35">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
-      <c r="T28" s="62"/>
-      <c r="U28" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="V28" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="W28" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="X28" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y28" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z28" s="65" t="s">
-        <v>29</v>
-      </c>
       <c r="AB28" s="23"/>
       <c r="AC28" s="23"/>
       <c r="AD28" s="23"/>
@@ -1943,27 +2291,6 @@
       <c r="AI28" s="16"/>
     </row>
     <row r="29" spans="1:35">
-      <c r="T29" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="U29" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="28">
-        <v>4</v>
-      </c>
-      <c r="W29" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="X29" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y29" s="28">
-        <v>10</v>
-      </c>
-      <c r="Z29" s="43" t="s">
-        <v>42</v>
-      </c>
       <c r="AB29" s="23"/>
       <c r="AC29" s="23"/>
       <c r="AD29" s="23"/>
@@ -1974,19 +2301,6 @@
       <c r="AI29" s="16"/>
     </row>
     <row r="30" spans="1:35">
-      <c r="T30" s="25"/>
-      <c r="U30" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="V30" s="29">
-        <v>4</v>
-      </c>
-      <c r="W30" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="41"/>
       <c r="AB30" s="16"/>
       <c r="AC30" s="16"/>
       <c r="AD30" s="23"/>
@@ -1997,27 +2311,6 @@
       <c r="AI30" s="16"/>
     </row>
     <row r="31" spans="1:35">
-      <c r="T31" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="U31" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="V31" s="28">
-        <v>8</v>
-      </c>
-      <c r="W31" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="X31" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y31" s="28">
-        <v>4</v>
-      </c>
-      <c r="Z31" s="39" t="s">
-        <v>43</v>
-      </c>
       <c r="AB31" s="16"/>
       <c r="AC31" s="16"/>
       <c r="AD31" s="16"/>
@@ -2028,20 +2321,7 @@
       <c r="AI31" s="16"/>
     </row>
     <row r="32" spans="1:35">
-      <c r="Q32" s="66"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y32" s="28">
-        <v>2</v>
-      </c>
-      <c r="Z32" s="39" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q32" s="60"/>
       <c r="AB32" s="16"/>
       <c r="AC32" s="16"/>
       <c r="AD32" s="16"/>
@@ -2051,185 +2331,23 @@
       <c r="AH32" s="16"/>
       <c r="AI32" s="16"/>
     </row>
-    <row r="33" spans="20:26">
-      <c r="T33" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="U33" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="V33" s="30">
-        <v>8</v>
-      </c>
-      <c r="W33" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="X33" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y33" s="30">
-        <v>10</v>
-      </c>
-      <c r="Z33" s="43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="20:26">
-      <c r="T34" s="25"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="41"/>
-    </row>
-    <row r="35" spans="20:26">
-      <c r="T35" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="U35" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="V35" s="28">
-        <v>8</v>
-      </c>
-      <c r="W35" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="X35" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y35" s="28">
-        <v>10</v>
-      </c>
-      <c r="Z35" s="43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="20:26">
-      <c r="T36" s="24"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="39"/>
-    </row>
-    <row r="37" spans="20:26">
-      <c r="T37" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="U37" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="V37" s="30">
-        <v>8</v>
-      </c>
-      <c r="W37" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="X37" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y37" s="30">
-        <v>10</v>
-      </c>
-      <c r="Z37" s="43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="20:26">
-      <c r="T38" s="25"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="41"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="41"/>
-    </row>
-    <row r="39" spans="20:26">
-      <c r="T39" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="U39" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="V39" s="28">
-        <v>8</v>
-      </c>
-      <c r="W39" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="X39" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y39" s="28">
-        <v>10</v>
-      </c>
-      <c r="Z39" s="39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="20:26">
-      <c r="T40" s="24"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="39"/>
-    </row>
-    <row r="41" spans="20:26">
-      <c r="T41" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="U41" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="V41" s="30">
-        <v>6</v>
-      </c>
-      <c r="W41" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="X41" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y41" s="30">
-        <v>10</v>
-      </c>
-      <c r="Z41" s="43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="20:26" ht="15.75" thickBot="1">
-      <c r="T42" s="27"/>
-      <c r="U42" s="44"/>
-      <c r="V42" s="31"/>
-      <c r="W42" s="45"/>
-      <c r="X42" s="44"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="45"/>
-    </row>
-    <row r="44" spans="20:26">
-      <c r="V44">
-        <f>SUM(V29:V41)</f>
-        <v>54</v>
-      </c>
-      <c r="Y44">
-        <f>SUM(Y29:Y42)</f>
-        <v>66</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="13">
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="O12:O13"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AA7:AA8"/>
   </mergeCells>
-  <conditionalFormatting sqref="Y44">
+  <conditionalFormatting sqref="Y20">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
       <formula>$E$12</formula>
     </cfRule>
@@ -2237,7 +2355,7 @@
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V44">
+  <conditionalFormatting sqref="V20">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
       <formula>$D$12</formula>
     </cfRule>
@@ -2246,7 +2364,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
